--- a/ИТ/Лабораторные работы/ВПР_ГПР.xlsx
+++ b/ИТ/Лабораторные работы/ВПР_ГПР.xlsx
@@ -1,23 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582997E9-475B-4D9C-8CF8-17424B268B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="107" windowWidth="14807" windowHeight="8013" activeTab="3"/>
+    <workbookView xWindow="23100" yWindow="2130" windowWidth="20895" windowHeight="11835" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Продажа товаров" sheetId="1" r:id="rId1"/>
     <sheet name="Цены" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="ГПР" sheetId="3" r:id="rId3"/>
+    <sheet name="Прайс 2019" sheetId="6" r:id="rId4"/>
+    <sheet name="Прайс 2020" sheetId="5" r:id="rId5"/>
+    <sheet name="Оценки" sheetId="7" r:id="rId6"/>
+    <sheet name="Справочники" sheetId="8" r:id="rId7"/>
+    <sheet name="Расчёт" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="Дней_не_менее">Справочники!$H$4</definedName>
+    <definedName name="Комната">Справочники!$A$2:$B$16</definedName>
+    <definedName name="Комнаты">[1]Справочники!$A$2:$B$16</definedName>
+    <definedName name="Курс_доллара">Справочники!$H$1</definedName>
+    <definedName name="Номера_комнат">Справочники!$A$2:$A$16</definedName>
+    <definedName name="Скидка">Справочники!$H$3</definedName>
+    <definedName name="Цены">Справочники!$D$2:$E$4</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="99">
   <si>
     <t>Продажа товаров</t>
   </si>
@@ -149,13 +177,182 @@
   </si>
   <si>
     <t>Итоговая стоимость</t>
+  </si>
+  <si>
+    <t>Новая стоимость, р.</t>
+  </si>
+  <si>
+    <t>123-432</t>
+  </si>
+  <si>
+    <t>Корпус редуктора</t>
+  </si>
+  <si>
+    <t>332-554</t>
+  </si>
+  <si>
+    <t>Шестерня 1 передачи</t>
+  </si>
+  <si>
+    <t>642-443</t>
+  </si>
+  <si>
+    <t>Привод вала</t>
+  </si>
+  <si>
+    <t>322-341</t>
+  </si>
+  <si>
+    <t>Шестерня 2 передачи</t>
+  </si>
+  <si>
+    <t>444-321</t>
+  </si>
+  <si>
+    <t>Накладка корпуса</t>
+  </si>
+  <si>
+    <t>664-313</t>
+  </si>
+  <si>
+    <t>Коробка передач в сборе</t>
+  </si>
+  <si>
+    <t>785-569</t>
+  </si>
+  <si>
+    <t>Сцепление</t>
+  </si>
+  <si>
+    <t>785-567</t>
+  </si>
+  <si>
+    <t>986-334</t>
+  </si>
+  <si>
+    <t>Тормозной цилиндр</t>
+  </si>
+  <si>
+    <t>Предмет</t>
+  </si>
+  <si>
+    <t>Алгебра</t>
+  </si>
+  <si>
+    <t>Геометрия</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Химия</t>
+  </si>
+  <si>
+    <t>Информатика</t>
+  </si>
+  <si>
+    <t>История</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
+    <t>Оценка</t>
+  </si>
+  <si>
+    <t>Введите предмет:</t>
+  </si>
+  <si>
+    <t>№ Комнаты</t>
+  </si>
+  <si>
+    <t>Тип Комнаты</t>
+  </si>
+  <si>
+    <t>Однокомн</t>
+  </si>
+  <si>
+    <t>Люкс</t>
+  </si>
+  <si>
+    <t>Двухкомн</t>
+  </si>
+  <si>
+    <t>Тип комнаты</t>
+  </si>
+  <si>
+    <t>Цена в долларах</t>
+  </si>
+  <si>
+    <t>Прайс 2019 г.</t>
+  </si>
+  <si>
+    <t>Прайс 2020 г.</t>
+  </si>
+  <si>
+    <t>Курс доллара:</t>
+  </si>
+  <si>
+    <t>Скидка:</t>
+  </si>
+  <si>
+    <t>Дней не менее:</t>
+  </si>
+  <si>
+    <t>N п/п</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>№ комнаты</t>
+  </si>
+  <si>
+    <t>Продолжительность пребывания в днях</t>
+  </si>
+  <si>
+    <t>Стоимость проживания за 1 день</t>
+  </si>
+  <si>
+    <t>К оплате в руб.</t>
+  </si>
+  <si>
+    <t>в долл.</t>
+  </si>
+  <si>
+    <t>в руб.</t>
+  </si>
+  <si>
+    <t>Иванов А. И.</t>
+  </si>
+  <si>
+    <t>Иваненко М. Р.</t>
+  </si>
+  <si>
+    <t>Петров Т. А.</t>
+  </si>
+  <si>
+    <t>Петренко П. П.</t>
+  </si>
+  <si>
+    <t>Сидоров В. К.</t>
+  </si>
+  <si>
+    <t>Седова К. У.</t>
+  </si>
+  <si>
+    <t>Фомичев А. Л.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="169" formatCode="#,##0.00\ [$р.-419]"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +383,50 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +439,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -450,11 +701,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -474,6 +764,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -483,27 +841,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,65 +850,127 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Денежный 2" xfId="2" xr:uid="{0063538B-D4A6-4294-8B23-BBAD207AA2C7}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -584,6 +983,142 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Справочники"/>
+      <sheetName val="Расчет"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>101</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>Однокомн</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>102</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Однокомн</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>103</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>Однокомн</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>104</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Люкс</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>105</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Двухкомн</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>106</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Двухкомн</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>107</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>Двухкомн</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>201</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>Двухкомн</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>202</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>Люкс</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>203</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>Люкс</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>204</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>Люкс</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>205</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>Однокомн</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>206</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>Однокомн</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>207</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>Однокомн</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>208</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>Однокомн</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,6 +1197,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -697,6 +1249,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -872,28 +1441,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.703125" customWidth="1"/>
-    <col min="2" max="2" width="17.17578125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="30.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -907,7 +1476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -915,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="6">
-        <f>VLOOKUP(A3,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A3,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>120</v>
       </c>
       <c r="D3" s="6">
@@ -923,7 +1492,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -931,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <f>VLOOKUP(A4,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A4,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>1522</v>
       </c>
       <c r="D4" s="6">
@@ -939,7 +1508,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -947,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="6">
-        <f>VLOOKUP(A5,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A5,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>70</v>
       </c>
       <c r="D5" s="6">
@@ -955,7 +1524,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -963,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="6">
-        <f>VLOOKUP(A6,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A6,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>33</v>
       </c>
       <c r="D6" s="6">
@@ -971,7 +1540,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -979,7 +1548,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6">
-        <f>VLOOKUP(A7,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A7,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>120</v>
       </c>
       <c r="D7" s="6">
@@ -987,7 +1556,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -995,7 +1564,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="6">
-        <f>VLOOKUP(A8,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A8,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>120</v>
       </c>
       <c r="D8" s="6">
@@ -1003,7 +1572,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1011,7 +1580,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="6">
-        <f>VLOOKUP(A9,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A9,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>33</v>
       </c>
       <c r="D9" s="6">
@@ -1019,7 +1588,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1027,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="6">
-        <f>VLOOKUP(A10,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A10,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>1522</v>
       </c>
       <c r="D10" s="6">
@@ -1035,7 +1604,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1043,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="6">
-        <f>VLOOKUP(A11,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A11,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>214</v>
       </c>
       <c r="D11" s="6">
@@ -1051,7 +1620,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1059,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="6">
-        <f>VLOOKUP(A12,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A12,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>214</v>
       </c>
       <c r="D12" s="6">
@@ -1067,7 +1636,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1644,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="6">
-        <f>VLOOKUP(A13,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A13,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>70</v>
       </c>
       <c r="D13" s="6">
@@ -1083,7 +1652,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -1091,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="6">
-        <f>VLOOKUP(A14,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A14,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>561</v>
       </c>
       <c r="D14" s="6">
@@ -1099,7 +1668,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -1107,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="6">
-        <f>VLOOKUP(A15,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A15,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>561</v>
       </c>
       <c r="D15" s="6">
@@ -1115,7 +1684,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1123,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="6">
-        <f>VLOOKUP(A16,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A16,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>70</v>
       </c>
       <c r="D16" s="6">
@@ -1131,7 +1700,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1139,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="6">
-        <f>VLOOKUP(A17,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A17,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>1962</v>
       </c>
       <c r="D17" s="6">
@@ -1147,7 +1716,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -1155,7 +1724,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="6">
-        <f>VLOOKUP(A18,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A18,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>195</v>
       </c>
       <c r="D18" s="6">
@@ -1163,7 +1732,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1740,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="6">
-        <f>VLOOKUP(A19,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A19,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>214</v>
       </c>
       <c r="D19" s="6">
@@ -1179,7 +1748,7 @@
         <v>3210</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
@@ -1187,7 +1756,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="6">
-        <f>VLOOKUP(A20,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A20,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>120</v>
       </c>
       <c r="D20" s="6">
@@ -1195,7 +1764,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -1203,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="6">
-        <f>VLOOKUP(A21,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A21,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>1962</v>
       </c>
       <c r="D21" s="6">
@@ -1211,7 +1780,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -1219,7 +1788,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="6">
-        <f>VLOOKUP(A22,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A22,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>195</v>
       </c>
       <c r="D22" s="6">
@@ -1227,7 +1796,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -1235,7 +1804,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="6">
-        <f>VLOOKUP(A23,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A23,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>186</v>
       </c>
       <c r="D23" s="6">
@@ -1243,7 +1812,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -1251,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="6">
-        <f>VLOOKUP(A24,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A24,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>1962</v>
       </c>
       <c r="D24" s="6">
@@ -1259,7 +1828,7 @@
         <v>5886</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1267,7 +1836,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="6">
-        <f>VLOOKUP(A25,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A25,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>214</v>
       </c>
       <c r="D25" s="6">
@@ -1275,7 +1844,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -1283,7 +1852,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="6">
-        <f>VLOOKUP(A26,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A26,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>30</v>
       </c>
       <c r="D26" s="6">
@@ -1291,7 +1860,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
@@ -1299,7 +1868,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="6">
-        <f>VLOOKUP(A27,Цены!$A$1:$C$20,3,0)</f>
+        <f>IFERROR(VLOOKUP(A27,Цены!$A$1:$C$20,3,0), 0)</f>
         <v>186</v>
       </c>
       <c r="D27" s="6">
@@ -1317,28 +1886,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.29296875" customWidth="1"/>
-    <col min="2" max="2" width="12.234375" customWidth="1"/>
-    <col min="3" max="3" width="10.29296875" customWidth="1"/>
+    <col min="1" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" ht="30.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
+    </row>
+    <row r="2" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1349,7 +1917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1360,7 +1928,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1371,7 +1939,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1382,7 +1950,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1393,7 +1961,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1404,7 +1972,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1415,7 +1983,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1426,7 +1994,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1437,7 +2005,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1448,7 +2016,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1459,7 +2027,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1470,7 +2038,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1481,7 +2049,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -1492,7 +2060,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="31" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -1503,7 +2071,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -1514,7 +2082,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -1525,18 +2093,18 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="7">
         <v>87423</v>
       </c>
       <c r="C19" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -1556,592 +2124,592 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="15.29296875" customWidth="1"/>
-    <col min="4" max="4" width="14.05859375" customWidth="1"/>
-    <col min="7" max="7" width="16.17578125" customWidth="1"/>
-    <col min="16" max="16" width="12.29296875" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="G1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="11" t="s">
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>60</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="G3" s="24" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="G3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="19">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>40</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="G4" s="26" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="G4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="21">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>45</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="G5" s="26" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="G5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="21">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>23</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="G6" s="26" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="G6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="21">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>60</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="G7" s="26" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="G7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="21">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>10</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="G8" s="26" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="G8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="21">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>15</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="G9" s="26" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="G9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="21">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>14</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="G10" s="26" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="G10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="21">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>48</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="G11" s="26" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="G11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="21">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>15</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="G12" s="26" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="G12" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="21">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>13</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="G13" s="26" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="G13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="21">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <v>42</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="G14" s="26" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="G14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="21">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>26</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="G15" s="28" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="G15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="23">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="7">
         <v>14</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A23" s="34" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="L23" s="31" t="s">
+      <c r="L23" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="31" t="s">
+      <c r="M23" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="N23" s="31" t="s">
+      <c r="N23" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="O23" s="31" t="s">
+      <c r="O23" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="P23" s="31" t="s">
+      <c r="P23" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A24" s="34"/>
-      <c r="B24" s="30" t="s">
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="26">
         <v>60</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="26">
         <v>40</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="26">
         <v>45</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="26">
         <v>23</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="26">
         <v>60</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="26">
         <v>10</v>
       </c>
-      <c r="I24" s="32">
+      <c r="I24" s="26">
         <v>15</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J24" s="26">
         <v>14</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K24" s="26">
         <v>48</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="26">
         <v>15</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="26">
         <v>13</v>
       </c>
-      <c r="N24" s="32">
+      <c r="N24" s="26">
         <v>42</v>
       </c>
-      <c r="O24" s="32">
+      <c r="O24" s="26">
         <v>26</v>
       </c>
-      <c r="P24" s="32">
+      <c r="P24" s="26">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A25" s="34"/>
-      <c r="B25" s="30" t="s">
+    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="27">
         <f>IFERROR(HLOOKUP(C23, $B$29:$O$30, 2, FALSE), 0)</f>
         <v>23</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="27">
         <f t="shared" ref="D25:P25" si="0">IFERROR(HLOOKUP(D23, $B$29:$O$30, 2, FALSE), 0)</f>
         <v>38</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="27">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="27">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="27">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="27">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="27">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="27">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="27">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="27">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="27">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="27">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="27">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="P25" s="33">
+      <c r="P25" s="27">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A26" s="34"/>
-      <c r="B26" s="30" t="s">
+    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="27">
         <f>C24*C25</f>
         <v>1380</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="27">
         <f t="shared" ref="D26:P26" si="1">D24*D25</f>
         <v>1520</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="27">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="27">
         <f t="shared" si="1"/>
         <v>1380</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="27">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="27">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="27">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="27">
         <f t="shared" si="1"/>
         <v>630</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="27">
         <f t="shared" si="1"/>
         <v>1056</v>
       </c>
-      <c r="L26" s="33">
+      <c r="L26" s="27">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="27">
         <f t="shared" si="1"/>
         <v>780</v>
       </c>
-      <c r="N26" s="33">
+      <c r="N26" s="27">
         <f t="shared" si="1"/>
         <v>1890</v>
       </c>
-      <c r="O26" s="33">
+      <c r="O26" s="27">
         <f t="shared" si="1"/>
         <v>1040</v>
       </c>
-      <c r="P26" s="33">
+      <c r="P26" s="27">
         <f t="shared" si="1"/>
         <v>560</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A28" s="39" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="38">
+      <c r="B28" s="29">
         <f xml:space="preserve"> SUM(C26:P26)</f>
         <v>19161</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A29" s="36" t="s">
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="H29" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="33" t="s">
+      <c r="I29" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="K29" s="33" t="s">
+      <c r="K29" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="L29" s="33" t="s">
+      <c r="L29" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="M29" s="33" t="s">
+      <c r="M29" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="N29" s="33" t="s">
+      <c r="N29" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O29" s="33" t="s">
+      <c r="O29" s="27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A30" s="37"/>
-      <c r="B30" s="35" t="s">
+    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="26">
         <v>40</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="26">
         <v>120</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="26">
         <v>29</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="26">
         <v>22</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="26">
         <v>45</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="26">
         <v>38</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I30" s="26">
         <v>60</v>
       </c>
-      <c r="J30" s="32">
+      <c r="J30" s="26">
         <v>80</v>
       </c>
-      <c r="K30" s="32">
+      <c r="K30" s="26">
         <v>45</v>
       </c>
-      <c r="L30" s="32">
+      <c r="L30" s="26">
         <v>40</v>
       </c>
-      <c r="M30" s="32">
+      <c r="M30" s="26">
         <v>45</v>
       </c>
-      <c r="N30" s="32">
+      <c r="N30" s="26">
         <v>23</v>
       </c>
-      <c r="O30" s="32">
+      <c r="O30" s="26">
         <v>40</v>
       </c>
     </row>
@@ -2156,13 +2724,915 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1CD07F-EB9E-4B77-A764-B022CE10898A}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="58"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="46">
+        <v>200</v>
+      </c>
+      <c r="D3" s="46">
+        <f>IFERROR(VLOOKUP(A3,'Прайс 2020'!$A$1:$C$10,3,0), 0)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="46">
+        <v>43</v>
+      </c>
+      <c r="D4" s="46">
+        <f>IFERROR(VLOOKUP(A4,'Прайс 2020'!$A$1:$C$10,3,0), 0)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="46">
+        <v>75</v>
+      </c>
+      <c r="D5" s="46">
+        <f>IFERROR(VLOOKUP(A5,'Прайс 2020'!$A$1:$C$10,3,0), 0)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="46">
+        <v>55</v>
+      </c>
+      <c r="D6" s="46">
+        <f>IFERROR(VLOOKUP(A6,'Прайс 2020'!$A$1:$C$10,3,0), 0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="46">
+        <v>76</v>
+      </c>
+      <c r="D7" s="46">
+        <f>IFERROR(VLOOKUP(A7,'Прайс 2020'!$A$1:$C$10,3,0), 0)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="46">
+        <v>435</v>
+      </c>
+      <c r="D8" s="46">
+        <f>IFERROR(VLOOKUP(A8,'Прайс 2020'!$A$1:$C$10,3,0), 0)</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="46">
+        <v>500</v>
+      </c>
+      <c r="D9" s="46">
+        <f>IFERROR(VLOOKUP(A9,'Прайс 2020'!$A$1:$C$10,3,0), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1DC53B-D2CE-4EB7-AFAC-D39A47200675}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="52"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="47">
+        <v>50</v>
+      </c>
+      <c r="D3" s="51"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="47">
+        <v>250</v>
+      </c>
+      <c r="D4" s="51"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="47">
+        <v>80</v>
+      </c>
+      <c r="D5" s="51"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="47">
+        <v>85</v>
+      </c>
+      <c r="D6" s="51"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="47">
+        <v>60</v>
+      </c>
+      <c r="D7" s="51"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="47">
+        <v>450</v>
+      </c>
+      <c r="D8" s="51"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="47">
+        <v>500</v>
+      </c>
+      <c r="D9" s="51"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="56">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08590DBF-5EFC-49A4-88D1-D452751A9D30}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="61">
+        <v>4</v>
+      </c>
+      <c r="C2" s="61">
+        <v>3</v>
+      </c>
+      <c r="D2" s="61">
+        <v>2</v>
+      </c>
+      <c r="E2" s="61">
+        <v>3</v>
+      </c>
+      <c r="F2" s="61">
+        <v>3</v>
+      </c>
+      <c r="G2" s="61">
+        <v>5</v>
+      </c>
+      <c r="H2" s="61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+    </row>
+    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="66">
+        <f>IFERROR(HLOOKUP(B5, A1:H2, 2, FALSE), "ПРЕДМЕТ НЕ НАЙДЕН")</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F149BE-2044-498B-82AE-13B222C5740F}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="76">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="68">
+        <v>101</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="68">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="68">
+        <v>102</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="68">
+        <v>200</v>
+      </c>
+      <c r="G3" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="75">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="68">
+        <v>103</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="68">
+        <v>150</v>
+      </c>
+      <c r="G4" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="68">
+        <v>104</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="68">
+        <v>105</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="68">
+        <v>106</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="68">
+        <v>107</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="68">
+        <v>201</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="68">
+        <v>202</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="68">
+        <v>203</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="68">
+        <v>204</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="68">
+        <v>205</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="70"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="68">
+        <v>206</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="70"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="68">
+        <v>207</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="70"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="68">
+        <v>208</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="70"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="70"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="70"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="70"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="70"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="70"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="70"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEF8746-B861-4A4D-9639-D44534CEF23D}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="67" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="78"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="80">
+        <v>1</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="80">
+        <v>207</v>
+      </c>
+      <c r="D3" s="81" t="str">
+        <f>VLOOKUP(C3,Комнаты,2,0)</f>
+        <v>Однокомн</v>
+      </c>
+      <c r="E3" s="79">
+        <v>10</v>
+      </c>
+      <c r="F3" s="82">
+        <f>VLOOKUP(D3,Цены,2,0)</f>
+        <v>110</v>
+      </c>
+      <c r="G3" s="81">
+        <f t="shared" ref="G3:G9" si="0">Курс_доллара*F3</f>
+        <v>3278</v>
+      </c>
+      <c r="H3" s="81">
+        <f>G3*E3</f>
+        <v>32780</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="80">
+        <v>2</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="80">
+        <v>201</v>
+      </c>
+      <c r="D4" s="81" t="str">
+        <f>VLOOKUP(C4,Комнаты,2,0)</f>
+        <v>Двухкомн</v>
+      </c>
+      <c r="E4" s="79">
+        <v>9</v>
+      </c>
+      <c r="F4" s="82">
+        <f>VLOOKUP(D4,Цены,2,0)</f>
+        <v>150</v>
+      </c>
+      <c r="G4" s="81">
+        <f t="shared" si="0"/>
+        <v>4470</v>
+      </c>
+      <c r="H4" s="81">
+        <f t="shared" ref="H4:H9" si="1">G4*E4</f>
+        <v>40230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="80">
+        <v>3</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="80">
+        <v>206</v>
+      </c>
+      <c r="D5" s="81" t="str">
+        <f>VLOOKUP(C5,Комнаты,2,0)</f>
+        <v>Однокомн</v>
+      </c>
+      <c r="E5" s="79">
+        <v>6</v>
+      </c>
+      <c r="F5" s="82">
+        <f t="shared" ref="F5:F9" si="2">VLOOKUP(D5,Цены,2,0)</f>
+        <v>110</v>
+      </c>
+      <c r="G5" s="81">
+        <f t="shared" si="0"/>
+        <v>3278</v>
+      </c>
+      <c r="H5" s="81">
+        <f t="shared" si="1"/>
+        <v>19668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="80">
+        <v>4</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="80">
+        <v>101</v>
+      </c>
+      <c r="D6" s="81" t="str">
+        <f t="shared" ref="D6:D9" si="3">VLOOKUP(C6,Комнаты,2,0)</f>
+        <v>Однокомн</v>
+      </c>
+      <c r="E6" s="79">
+        <v>7</v>
+      </c>
+      <c r="F6" s="82">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="G6" s="81">
+        <f t="shared" si="0"/>
+        <v>3278</v>
+      </c>
+      <c r="H6" s="81">
+        <f t="shared" si="1"/>
+        <v>22946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="80">
+        <v>5</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="80">
+        <v>104</v>
+      </c>
+      <c r="D7" s="81" t="str">
+        <f t="shared" si="3"/>
+        <v>Люкс</v>
+      </c>
+      <c r="E7" s="79">
+        <v>5</v>
+      </c>
+      <c r="F7" s="82">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G7" s="81">
+        <f t="shared" si="0"/>
+        <v>5960</v>
+      </c>
+      <c r="H7" s="81">
+        <f t="shared" si="1"/>
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="80">
+        <v>6</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="80">
+        <v>104</v>
+      </c>
+      <c r="D8" s="81" t="str">
+        <f t="shared" si="3"/>
+        <v>Люкс</v>
+      </c>
+      <c r="E8" s="79">
+        <v>18</v>
+      </c>
+      <c r="F8" s="82">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G8" s="81">
+        <f t="shared" si="0"/>
+        <v>5960</v>
+      </c>
+      <c r="H8" s="81">
+        <f t="shared" si="1"/>
+        <v>107280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="80">
+        <v>7</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="80">
+        <v>208</v>
+      </c>
+      <c r="D9" s="81" t="str">
+        <f t="shared" si="3"/>
+        <v>Однокомн</v>
+      </c>
+      <c r="E9" s="79">
+        <v>6</v>
+      </c>
+      <c r="F9" s="82">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="G9" s="81">
+        <f t="shared" si="0"/>
+        <v>3278</v>
+      </c>
+      <c r="H9" s="81">
+        <f t="shared" si="1"/>
+        <v>19668</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C9" xr:uid="{87FA517B-35F4-45A8-BEB1-036DCBE7145A}">
+      <formula1>Номера_комнат</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ИТ/Лабораторные работы/ВПР_ГПР.xlsx
+++ b/ИТ/Лабораторные работы/ВПР_ГПР.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582997E9-475B-4D9C-8CF8-17424B268B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23100" yWindow="2130" windowWidth="20895" windowHeight="11835" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23100" yWindow="2133" windowWidth="20893" windowHeight="11833" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Продажа товаров" sheetId="1" r:id="rId1"/>
@@ -14,8 +13,8 @@
     <sheet name="Прайс 2019" sheetId="6" r:id="rId4"/>
     <sheet name="Прайс 2020" sheetId="5" r:id="rId5"/>
     <sheet name="Оценки" sheetId="7" r:id="rId6"/>
-    <sheet name="Справочники" sheetId="8" r:id="rId7"/>
-    <sheet name="Расчёт" sheetId="9" r:id="rId8"/>
+    <sheet name="Справочники" sheetId="8" state="hidden" r:id="rId7"/>
+    <sheet name="Расчёт" sheetId="9" state="hidden" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
@@ -29,7 +28,7 @@
     <definedName name="Скидка">Справочники!$H$3</definedName>
     <definedName name="Цены">Справочники!$D$2:$E$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -347,10 +346,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="#,##0.00\ [$р.-419]"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$р.-419]"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -742,7 +741,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -832,36 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -898,23 +867,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -953,22 +907,67 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Денежный 2" xfId="2" xr:uid="{0063538B-D4A6-4294-8B23-BBAD207AA2C7}"/>
+    <cellStyle name="Денежный 2" xfId="2"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1197,23 +1196,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1249,23 +1231,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1441,28 +1406,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.703125" customWidth="1"/>
+    <col min="2" max="2" width="17.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:4" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="2" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+    </row>
+    <row r="2" spans="1:4" ht="30.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1476,7 +1441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1492,7 +1457,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1508,7 +1473,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1524,7 +1489,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1540,7 +1505,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1556,7 +1521,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1572,7 +1537,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1588,7 +1553,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1604,7 +1569,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1620,7 +1585,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1636,7 +1601,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1652,7 +1617,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -1668,7 +1633,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -1684,7 +1649,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1700,7 +1665,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1716,7 +1681,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -1732,7 +1697,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -1748,7 +1713,7 @@
         <v>3210</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
@@ -1764,7 +1729,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -1780,7 +1745,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -1796,7 +1761,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -1812,7 +1777,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -1828,7 +1793,7 @@
         <v>5886</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -1844,7 +1809,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -1860,7 +1825,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
@@ -1886,27 +1851,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="1" max="2" width="12.29296875" customWidth="1"/>
+    <col min="3" max="3" width="10.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:3" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
-    </row>
-    <row r="2" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+    </row>
+    <row r="2" spans="1:3" ht="30.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1917,7 +1882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1928,7 +1893,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1939,7 +1904,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1950,7 +1915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1961,7 +1926,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1972,7 +1937,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1983,7 +1948,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1994,7 +1959,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -2005,7 +1970,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -2016,7 +1981,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -2027,7 +1992,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -2038,7 +2003,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -2049,7 +2014,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -2060,7 +2025,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -2071,7 +2036,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -2082,7 +2047,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -2093,7 +2058,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -2104,7 +2069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -2124,35 +2089,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.64453125" customWidth="1"/>
+    <col min="2" max="2" width="15.29296875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.1171875" customWidth="1"/>
+    <col min="16" max="16" width="12.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:8" ht="15.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="71"/>
       <c r="G1" s="14" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="15"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -2172,7 +2137,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11" t="s">
         <v>30</v>
       </c>
@@ -2188,7 +2153,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
@@ -2204,7 +2169,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
@@ -2220,7 +2185,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11" t="s">
         <v>33</v>
       </c>
@@ -2236,7 +2201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11" t="s">
         <v>33</v>
       </c>
@@ -2252,7 +2217,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11" t="s">
         <v>34</v>
       </c>
@@ -2268,7 +2233,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11" t="s">
         <v>35</v>
       </c>
@@ -2284,7 +2249,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11" t="s">
         <v>36</v>
       </c>
@@ -2300,7 +2265,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11" t="s">
         <v>37</v>
       </c>
@@ -2316,7 +2281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11" t="s">
         <v>33</v>
       </c>
@@ -2332,7 +2297,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11" t="s">
         <v>33</v>
       </c>
@@ -2348,7 +2313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11" t="s">
         <v>38</v>
       </c>
@@ -2364,7 +2329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11" t="s">
         <v>39</v>
       </c>
@@ -2380,7 +2345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11" t="s">
         <v>40</v>
       </c>
@@ -2390,8 +2355,8 @@
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+    <row r="23" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A23" s="72" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="24" t="s">
@@ -2440,8 +2405,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+    <row r="24" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A24" s="72"/>
       <c r="B24" s="24" t="s">
         <v>27</v>
       </c>
@@ -2488,8 +2453,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+    <row r="25" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A25" s="72"/>
       <c r="B25" s="24" t="s">
         <v>28</v>
       </c>
@@ -2550,8 +2515,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A26" s="72"/>
       <c r="B26" s="24" t="s">
         <v>29</v>
       </c>
@@ -2612,7 +2577,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A28" s="30" t="s">
         <v>43</v>
       </c>
@@ -2621,8 +2586,8 @@
         <v>19161</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+    <row r="29" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A29" s="73" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="28" t="s">
@@ -2668,8 +2633,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+    <row r="30" spans="1:16" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A30" s="74"/>
       <c r="B30" s="28" t="s">
         <v>28</v>
       </c>
@@ -2724,144 +2689,144 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1CD07F-EB9E-4B77-A764-B022CE10898A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.41015625" customWidth="1"/>
+    <col min="2" max="2" width="19.703125" customWidth="1"/>
+    <col min="3" max="3" width="20.703125" customWidth="1"/>
+    <col min="4" max="4" width="23.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:4" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="58"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="77"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="36">
         <v>200</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="36">
         <f>IFERROR(VLOOKUP(A3,'Прайс 2020'!$A$1:$C$10,3,0), 0)</f>
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+    <row r="4" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="36">
         <v>43</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="36">
         <f>IFERROR(VLOOKUP(A4,'Прайс 2020'!$A$1:$C$10,3,0), 0)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
+    <row r="5" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="36">
         <v>75</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="36">
         <f>IFERROR(VLOOKUP(A5,'Прайс 2020'!$A$1:$C$10,3,0), 0)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="36">
         <v>55</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="36">
         <f>IFERROR(VLOOKUP(A6,'Прайс 2020'!$A$1:$C$10,3,0), 0)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
+    <row r="7" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="36">
         <v>76</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="36">
         <f>IFERROR(VLOOKUP(A7,'Прайс 2020'!$A$1:$C$10,3,0), 0)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
+    <row r="8" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="36">
         <v>435</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="36">
         <f>IFERROR(VLOOKUP(A8,'Прайс 2020'!$A$1:$C$10,3,0), 0)</f>
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60" t="s">
+    <row r="9" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="36">
         <v>500</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="36">
         <f>IFERROR(VLOOKUP(A9,'Прайс 2020'!$A$1:$C$10,3,0), 0)</f>
         <v>0</v>
       </c>
@@ -2875,137 +2840,137 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1DC53B-D2CE-4EB7-AFAC-D39A47200675}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.87890625" customWidth="1"/>
+    <col min="2" max="2" width="19.5859375" customWidth="1"/>
+    <col min="3" max="3" width="24.87890625" customWidth="1"/>
+    <col min="4" max="4" width="23.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:4" ht="15.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="52"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="42"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="50"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="37">
         <v>50</v>
       </c>
-      <c r="D3" s="51"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="37">
         <v>250</v>
       </c>
-      <c r="D4" s="51"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="37">
         <v>80</v>
       </c>
-      <c r="D5" s="51"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="37">
         <v>85</v>
       </c>
-      <c r="D6" s="51"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="D6" s="41"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="37">
         <v>60</v>
       </c>
-      <c r="D7" s="51"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="D7" s="41"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="37">
         <v>450</v>
       </c>
-      <c r="D8" s="51"/>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+      <c r="D8" s="41"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="37">
         <v>500</v>
       </c>
-      <c r="D9" s="51"/>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+      <c r="D9" s="41"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="43">
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" ht="14.7" thickTop="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -3015,125 +2980,125 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08590DBF-5EFC-49A4-88D1-D452751A9D30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.703125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.1171875" customWidth="1"/>
+    <col min="4" max="4" width="10.5859375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.41015625" customWidth="1"/>
+    <col min="8" max="8" width="19.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:8" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A1" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="46" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:8" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A2" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="46">
         <v>4</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="46">
         <v>3</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="46">
         <v>2</v>
       </c>
-      <c r="E2" s="61">
+      <c r="E2" s="46">
         <v>3</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="46">
         <v>3</v>
       </c>
-      <c r="G2" s="61">
+      <c r="G2" s="46">
         <v>5</v>
       </c>
-      <c r="H2" s="61">
+      <c r="H2" s="46">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-    </row>
-    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A5" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.35" x14ac:dyDescent="0.5">
+      <c r="A6" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="51">
         <f>IFERROR(HLOOKUP(B5, A1:H2, 2, FALSE), "ПРЕДМЕТ НЕ НАЙДЕН")</f>
         <v>2</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3141,212 +3106,212 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F149BE-2044-498B-82AE-13B222C5740F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.29296875" customWidth="1"/>
+    <col min="4" max="4" width="11.1171875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="76">
+      <c r="H1" s="61">
         <v>29.8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="68">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A2" s="53">
         <v>101</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="68">
+      <c r="E2" s="53">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="68">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A3" s="53">
         <v>102</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="53">
         <v>200</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="75">
+      <c r="H3" s="60">
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="68">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A4" s="53">
         <v>103</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="53">
         <v>150</v>
       </c>
-      <c r="G4" s="74" t="s">
+      <c r="G4" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="53">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="68">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A5" s="53">
         <v>104</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="54" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="68">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A6" s="53">
         <v>105</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="54" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="68">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A7" s="53">
         <v>106</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="54" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="68">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A8" s="53">
         <v>107</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="54" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="68">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A9" s="53">
         <v>201</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="54" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="68">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A10" s="53">
         <v>202</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="54" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="68">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A11" s="53">
         <v>203</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="54" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="68">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A12" s="53">
         <v>204</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="54" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="68">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A13" s="53">
         <v>205</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="70"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="68">
+      <c r="G13" s="55"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A14" s="53">
         <v>206</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="70"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="68">
+      <c r="G14" s="55"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A15" s="53">
         <v>207</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="70"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="68">
+      <c r="G15" s="55"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A16" s="53">
         <v>208</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="70"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="70"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="70"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="70"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="70"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="70"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="70"/>
+      <c r="G16" s="55"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.5">
+      <c r="G17" s="55"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.5">
+      <c r="G18" s="55"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.5">
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.5">
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.5">
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.5">
+      <c r="G22" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3354,266 +3319,266 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEF8746-B861-4A4D-9639-D44534CEF23D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="67" customWidth="1"/>
+    <col min="2" max="2" width="13.41015625" customWidth="1"/>
+    <col min="4" max="4" width="13.87890625" style="52" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="67"/>
+    <col min="6" max="8" width="9.1171875" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78" t="s">
+      <c r="G1" s="81"/>
+      <c r="H1" s="81" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="72" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="78"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="80">
+      <c r="H2" s="81"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A3" s="63">
         <v>1</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="80">
+      <c r="C3" s="63">
         <v>207</v>
       </c>
-      <c r="D3" s="81" t="str">
+      <c r="D3" s="64" t="str">
         <f>VLOOKUP(C3,Комнаты,2,0)</f>
         <v>Однокомн</v>
       </c>
-      <c r="E3" s="79">
+      <c r="E3" s="62">
         <v>10</v>
       </c>
-      <c r="F3" s="82">
+      <c r="F3" s="65">
         <f>VLOOKUP(D3,Цены,2,0)</f>
         <v>110</v>
       </c>
-      <c r="G3" s="81">
+      <c r="G3" s="64">
         <f t="shared" ref="G3:G9" si="0">Курс_доллара*F3</f>
         <v>3278</v>
       </c>
-      <c r="H3" s="81">
+      <c r="H3" s="64">
         <f>G3*E3</f>
         <v>32780</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="80">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A4" s="63">
         <v>2</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="80">
+      <c r="C4" s="63">
         <v>201</v>
       </c>
-      <c r="D4" s="81" t="str">
+      <c r="D4" s="64" t="str">
         <f>VLOOKUP(C4,Комнаты,2,0)</f>
         <v>Двухкомн</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="62">
         <v>9</v>
       </c>
-      <c r="F4" s="82">
+      <c r="F4" s="65">
         <f>VLOOKUP(D4,Цены,2,0)</f>
         <v>150</v>
       </c>
-      <c r="G4" s="81">
+      <c r="G4" s="64">
         <f t="shared" si="0"/>
         <v>4470</v>
       </c>
-      <c r="H4" s="81">
+      <c r="H4" s="64">
         <f t="shared" ref="H4:H9" si="1">G4*E4</f>
         <v>40230</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="80">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A5" s="63">
         <v>3</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="80">
+      <c r="C5" s="63">
         <v>206</v>
       </c>
-      <c r="D5" s="81" t="str">
+      <c r="D5" s="64" t="str">
         <f>VLOOKUP(C5,Комнаты,2,0)</f>
         <v>Однокомн</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="62">
         <v>6</v>
       </c>
-      <c r="F5" s="82">
+      <c r="F5" s="65">
         <f t="shared" ref="F5:F9" si="2">VLOOKUP(D5,Цены,2,0)</f>
         <v>110</v>
       </c>
-      <c r="G5" s="81">
+      <c r="G5" s="64">
         <f t="shared" si="0"/>
         <v>3278</v>
       </c>
-      <c r="H5" s="81">
+      <c r="H5" s="64">
         <f t="shared" si="1"/>
         <v>19668</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="80">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A6" s="63">
         <v>4</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="63">
         <v>101</v>
       </c>
-      <c r="D6" s="81" t="str">
+      <c r="D6" s="64" t="str">
         <f t="shared" ref="D6:D9" si="3">VLOOKUP(C6,Комнаты,2,0)</f>
         <v>Однокомн</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E6" s="62">
         <v>7</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="65">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="64">
         <f t="shared" si="0"/>
         <v>3278</v>
       </c>
-      <c r="H6" s="81">
+      <c r="H6" s="64">
         <f t="shared" si="1"/>
         <v>22946</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="80">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A7" s="63">
         <v>5</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="80">
+      <c r="C7" s="63">
         <v>104</v>
       </c>
-      <c r="D7" s="81" t="str">
+      <c r="D7" s="64" t="str">
         <f t="shared" si="3"/>
         <v>Люкс</v>
       </c>
-      <c r="E7" s="79">
+      <c r="E7" s="62">
         <v>5</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="65">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7" s="64">
         <f t="shared" si="0"/>
         <v>5960</v>
       </c>
-      <c r="H7" s="81">
+      <c r="H7" s="64">
         <f t="shared" si="1"/>
         <v>29800</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="80">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A8" s="63">
         <v>6</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="80">
+      <c r="C8" s="63">
         <v>104</v>
       </c>
-      <c r="D8" s="81" t="str">
+      <c r="D8" s="64" t="str">
         <f t="shared" si="3"/>
         <v>Люкс</v>
       </c>
-      <c r="E8" s="79">
+      <c r="E8" s="62">
         <v>18</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="65">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G8" s="81">
+      <c r="G8" s="64">
         <f t="shared" si="0"/>
         <v>5960</v>
       </c>
-      <c r="H8" s="81">
+      <c r="H8" s="64">
         <f t="shared" si="1"/>
         <v>107280</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="80">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A9" s="63">
         <v>7</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="63">
         <v>208</v>
       </c>
-      <c r="D9" s="81" t="str">
+      <c r="D9" s="64" t="str">
         <f t="shared" si="3"/>
         <v>Однокомн</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="62">
         <v>6</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="65">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="64">
         <f t="shared" si="0"/>
         <v>3278</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="64">
         <f t="shared" si="1"/>
         <v>19668</v>
       </c>
@@ -3629,7 +3594,7 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C9" xr:uid="{87FA517B-35F4-45A8-BEB1-036DCBE7145A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C9">
       <formula1>Номера_комнат</formula1>
     </dataValidation>
   </dataValidations>
